--- a/coefficients/2020/01 Example Excel Book.xlsx
+++ b/coefficients/2020/01 Example Excel Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithrichards/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC49457E-4430-A447-AA19-58B31B8D4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3F39E-D706-3F40-899B-7F692CAB448A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="460" windowWidth="44080" windowHeight="23420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="460" windowWidth="44080" windowHeight="23420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Calculation" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>DASH PAIN NPRS (IROMS 20) </t>
+  </si>
+  <si>
+    <t>INFINITY</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -20319,8 +20322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20673,8 +20676,8 @@
       <c r="A9" s="1">
         <v>365.01</v>
       </c>
-      <c r="B9" s="1">
-        <v>1000000</v>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>

--- a/coefficients/2020/01 Example Excel Book.xlsx
+++ b/coefficients/2020/01 Example Excel Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithrichards/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinsmith/Projects/Other/qcdr/coefficients/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3F39E-D706-3F40-899B-7F692CAB448A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B3DF6-6424-F14F-9ECA-D6C370D6AC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="460" windowWidth="44080" windowHeight="23420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Calculation" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -230,9 +230,6 @@
     <t>Age.num</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>GENDER_DSC</t>
   </si>
   <si>
@@ -287,44 +284,44 @@
     <t>(365,Inf]</t>
   </si>
   <si>
-    <t>KOS PRO (IROMS 11)</t>
+    <t>INFINITY</t>
   </si>
   <si>
-    <t>NDI PRO (IROMS 15)</t>
+    <t>ODI.prob.mcd</t>
   </si>
   <si>
-    <t>MDQ PRO (IROMS 17)</t>
+    <t>ODI.prob.pain</t>
   </si>
   <si>
-    <t>MDQ PAIN NPRS (IROMS 18)</t>
+    <t>NECK.prob.mcd</t>
   </si>
   <si>
-    <t>NDI PAIN NPRS (IROMS16) </t>
+    <t>NECK.prob.pain</t>
   </si>
   <si>
-    <t>KOS PAIN NPRS (IROMS 12)</t>
+    <t>KNEE.prob.mcd</t>
   </si>
   <si>
-    <t>LEFS PRO (IROMS 13 )</t>
+    <t>KNEE.prob.pain</t>
   </si>
   <si>
-    <t>LEFS PAIN NPRS  (IROMS 14)</t>
+    <t>LEFS.prob.mcd</t>
   </si>
   <si>
-    <t>DASH PRO (IROMS 19)</t>
+    <t>LEFS.prob.pain</t>
   </si>
   <si>
-    <t>DASH PAIN NPRS (IROMS 20) </t>
+    <t>DASH.prob.mcd</t>
   </si>
   <si>
-    <t>INFINITY</t>
+    <t>DASH.prob.pain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +363,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,6 +428,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1594,11 +1597,11 @@
     <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="1" t="str">
         <f>VLOOKUP("id", Intercepts!A1:L1, $Q$1, FALSE)</f>
-        <v>MDQ PRO (IROMS 17)</v>
+        <v>ODI.prob.mcd</v>
       </c>
       <c r="L29" s="1" t="str">
         <f>VLOOKUP("id", Intercepts!$A1:$L1, $Q$1, FALSE)</f>
-        <v>MDQ PRO (IROMS 17)</v>
+        <v>ODI.prob.mcd</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>57</v>
@@ -2629,34 +2632,34 @@
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3723,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3741,49 +3744,47 @@
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.1640625" customWidth="1"/>
-    <col min="12" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" customWidth="1"/>
-    <col min="16" max="25" width="7.6640625" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" customWidth="1"/>
+    <col min="15" max="24" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -3793,9 +3794,8 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -3831,10 +3831,8 @@
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="8">
-        <v>2.3025850929940401</v>
-      </c>
-      <c r="O2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -3843,9 +3841,8 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>11</v>
       </c>
@@ -3881,9 +3878,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8">
-        <v>2.3978952727983698</v>
-      </c>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -3893,9 +3888,8 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>12</v>
       </c>
@@ -3931,9 +3925,7 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>2.4849066497879999</v>
-      </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -3943,9 +3935,8 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>13</v>
       </c>
@@ -3981,9 +3972,7 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8">
-        <v>2.5649493574615301</v>
-      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -3993,9 +3982,8 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -4031,9 +4019,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8">
-        <v>2.63905732961525</v>
-      </c>
+      <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -4043,9 +4029,8 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -4081,9 +4066,7 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8">
-        <v>2.7080502011022101</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -4093,9 +4076,8 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>16</v>
       </c>
@@ -4131,9 +4113,7 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8">
-        <v>2.7725887222397798</v>
-      </c>
+      <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -4143,9 +4123,8 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -4181,9 +4160,7 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8">
-        <v>2.8332133440562099</v>
-      </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -4193,9 +4170,8 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>18</v>
       </c>
@@ -4231,9 +4207,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8">
-        <v>2.8903717578961601</v>
-      </c>
+      <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -4243,9 +4217,8 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>19</v>
       </c>
@@ -4281,9 +4254,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8">
-        <v>2.9444389791664398</v>
-      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -4293,9 +4264,8 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -4331,9 +4301,7 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8">
-        <v>2.99573227355399</v>
-      </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -4343,9 +4311,8 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -4381,9 +4348,7 @@
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8">
-        <v>3.0445224377234199</v>
-      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -4393,9 +4358,8 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>22</v>
       </c>
@@ -4431,9 +4395,7 @@
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>3.0910424533583098</v>
-      </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -4443,9 +4405,8 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>23</v>
       </c>
@@ -4481,9 +4442,7 @@
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8">
-        <v>3.1354942159291399</v>
-      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
@@ -4493,9 +4452,8 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>24</v>
       </c>
@@ -4531,9 +4489,7 @@
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8">
-        <v>3.17805383034794</v>
-      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -4543,9 +4499,8 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
@@ -4581,9 +4536,7 @@
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8">
-        <v>3.2188758248682001</v>
-      </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -4593,9 +4546,8 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -4631,9 +4583,7 @@
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="8">
-        <v>3.2580965380214799</v>
-      </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -4643,9 +4593,8 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>27</v>
       </c>
@@ -4681,9 +4630,7 @@
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8">
-        <v>3.2958368660043198</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
@@ -4693,9 +4640,8 @@
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>28</v>
       </c>
@@ -4731,9 +4677,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>3.3322045101751998</v>
-      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -4743,9 +4687,8 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>29</v>
       </c>
@@ -4781,9 +4724,7 @@
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8">
-        <v>3.3672958299864701</v>
-      </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -4793,9 +4734,8 @@
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -4831,9 +4771,7 @@
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>3.4011973816621501</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -4843,9 +4781,8 @@
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -4881,9 +4818,7 @@
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8">
-        <v>3.4339872044851401</v>
-      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -4893,9 +4828,8 @@
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -4931,9 +4865,7 @@
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>3.4657359027997199</v>
-      </c>
+      <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -4943,9 +4875,8 @@
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-    </row>
-    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>33</v>
       </c>
@@ -4981,9 +4912,7 @@
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8">
-        <v>3.4965075614664798</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -4993,9 +4922,8 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -5031,9 +4959,7 @@
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8">
-        <v>3.5263605246161598</v>
-      </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -5043,9 +4969,8 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -5081,9 +5006,7 @@
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <v>3.55534806148941</v>
-      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -5093,9 +5016,8 @@
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-    </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -5131,9 +5053,7 @@
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8">
-        <v>3.5835189384561099</v>
-      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -5143,9 +5063,8 @@
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-    </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>37</v>
       </c>
@@ -5181,9 +5100,7 @@
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="8">
-        <v>3.6109179126442199</v>
-      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -5193,9 +5110,8 @@
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-    </row>
-    <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>38</v>
       </c>
@@ -5231,9 +5147,7 @@
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="8">
-        <v>3.6375861597263799</v>
-      </c>
+      <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -5243,9 +5157,8 @@
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-    </row>
-    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>39</v>
       </c>
@@ -5281,9 +5194,7 @@
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <v>3.6635616461296401</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -5293,9 +5204,8 @@
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-    </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>40</v>
       </c>
@@ -5331,9 +5241,7 @@
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8">
-        <v>3.68887945411393</v>
-      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -5343,9 +5251,8 @@
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-    </row>
-    <row r="33" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>41</v>
       </c>
@@ -5381,9 +5288,7 @@
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8">
-        <v>3.7135720667043</v>
-      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -5393,9 +5298,8 @@
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-    </row>
-    <row r="34" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>42</v>
       </c>
@@ -5431,9 +5335,7 @@
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8">
-        <v>3.73766961828336</v>
-      </c>
+      <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -5443,9 +5345,8 @@
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43</v>
       </c>
@@ -5481,9 +5382,7 @@
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="8">
-        <v>3.7612001156935602</v>
-      </c>
+      <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
@@ -5493,9 +5392,8 @@
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-    </row>
-    <row r="36" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44</v>
       </c>
@@ -5531,9 +5429,7 @@
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="8">
-        <v>3.7841896339182601</v>
-      </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
@@ -5543,9 +5439,8 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-    </row>
-    <row r="37" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>45</v>
       </c>
@@ -5581,9 +5476,7 @@
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="8">
-        <v>3.8066624897703099</v>
-      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -5593,9 +5486,8 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-    </row>
-    <row r="38" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>46</v>
       </c>
@@ -5631,9 +5523,7 @@
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="8">
-        <v>3.8286413964890902</v>
-      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -5643,9 +5533,8 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-    </row>
-    <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>47</v>
       </c>
@@ -5681,9 +5570,7 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="8">
-        <v>3.85014760171005</v>
-      </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -5693,9 +5580,8 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-    </row>
-    <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>48</v>
       </c>
@@ -5731,9 +5617,7 @@
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="8">
-        <v>3.8712010109078898</v>
-      </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -5743,9 +5627,8 @@
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-    </row>
-    <row r="41" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>49</v>
       </c>
@@ -5781,9 +5664,7 @@
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="8">
-        <v>3.8918202981106198</v>
-      </c>
+      <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -5793,9 +5674,8 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-    </row>
-    <row r="42" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>50</v>
       </c>
@@ -5831,9 +5711,7 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="8">
-        <v>3.9120230054281402</v>
-      </c>
+      <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
@@ -5843,9 +5721,8 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-    </row>
-    <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>51</v>
       </c>
@@ -5881,9 +5758,7 @@
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="8">
-        <v>3.93182563272432</v>
-      </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
@@ -5893,9 +5768,8 @@
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-    </row>
-    <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>52</v>
       </c>
@@ -5931,9 +5805,7 @@
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="8">
-        <v>3.95124371858142</v>
-      </c>
+      <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
@@ -5943,9 +5815,8 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-    </row>
-    <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>53</v>
       </c>
@@ -5981,9 +5852,7 @@
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="8">
-        <v>3.9702919135521202</v>
-      </c>
+      <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
@@ -5993,9 +5862,8 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-    </row>
-    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>54</v>
       </c>
@@ -6031,9 +5899,7 @@
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="8">
-        <v>3.9889840465642701</v>
-      </c>
+      <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
@@ -6043,9 +5909,8 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-    </row>
-    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>55</v>
       </c>
@@ -6081,9 +5946,7 @@
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="8">
-        <v>4.0073331852324703</v>
-      </c>
+      <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
@@ -6093,9 +5956,8 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-    </row>
-    <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>56</v>
       </c>
@@ -6131,9 +5993,7 @@
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="8">
-        <v>4.0253516907351496</v>
-      </c>
+      <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -6143,9 +6003,8 @@
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-    </row>
-    <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>57</v>
       </c>
@@ -6181,9 +6040,7 @@
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="8">
-        <v>4.0430512678345503</v>
-      </c>
+      <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
@@ -6193,9 +6050,8 @@
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-    </row>
-    <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>58</v>
       </c>
@@ -6231,9 +6087,7 @@
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="8">
-        <v>4.0604430105464102</v>
-      </c>
+      <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
@@ -6243,9 +6097,8 @@
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-    </row>
-    <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>59</v>
       </c>
@@ -6281,9 +6134,7 @@
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="8">
-        <v>4.0775374439057197</v>
-      </c>
+      <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -6293,9 +6144,8 @@
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-    </row>
-    <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>60</v>
       </c>
@@ -6331,9 +6181,7 @@
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="8">
-        <v>4.0943445622221004</v>
-      </c>
+      <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
@@ -6343,9 +6191,8 @@
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-    </row>
-    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>61</v>
       </c>
@@ -6381,9 +6228,7 @@
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="8">
-        <v>4.1108738641733096</v>
-      </c>
+      <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -6393,9 +6238,8 @@
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-    </row>
-    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>62</v>
       </c>
@@ -6431,9 +6275,7 @@
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="8">
-        <v>4.1271343850450899</v>
-      </c>
+      <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -6443,9 +6285,8 @@
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-    </row>
-    <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>63</v>
       </c>
@@ -6481,9 +6322,7 @@
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="8">
-        <v>4.1431347263915299</v>
-      </c>
+      <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
@@ -6493,9 +6332,8 @@
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-    </row>
-    <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>64</v>
       </c>
@@ -6531,9 +6369,7 @@
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="8">
-        <v>4.1588830833596697</v>
-      </c>
+      <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
@@ -6543,9 +6379,8 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-    </row>
-    <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>65</v>
       </c>
@@ -6581,9 +6416,7 @@
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="N57" s="8">
-        <v>4.1743872698956297</v>
-      </c>
+      <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
@@ -6593,9 +6426,8 @@
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-    </row>
-    <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>66</v>
       </c>
@@ -6631,9 +6463,7 @@
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
-      <c r="N58" s="8">
-        <v>4.1896547420264199</v>
-      </c>
+      <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
@@ -6643,9 +6473,8 @@
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-    </row>
-    <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>67</v>
       </c>
@@ -6681,9 +6510,7 @@
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
-      <c r="N59" s="8">
-        <v>4.2046926193909604</v>
-      </c>
+      <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
@@ -6693,9 +6520,8 @@
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-    </row>
-    <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>68</v>
       </c>
@@ -6731,9 +6557,7 @@
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
-      <c r="N60" s="8">
-        <v>4.2195077051760999</v>
-      </c>
+      <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
@@ -6743,9 +6567,8 @@
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-    </row>
-    <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>69</v>
       </c>
@@ -6781,9 +6604,7 @@
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
-      <c r="N61" s="8">
-        <v>4.2341065045972597</v>
-      </c>
+      <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
@@ -6793,9 +6614,8 @@
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-    </row>
-    <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>70</v>
       </c>
@@ -6831,9 +6651,7 @@
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="8">
-        <v>4.2484952420493496</v>
-      </c>
+      <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
@@ -6843,9 +6661,8 @@
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-    </row>
-    <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>71</v>
       </c>
@@ -6881,9 +6698,7 @@
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="N63" s="8">
-        <v>4.2626798770413101</v>
-      </c>
+      <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
@@ -6893,9 +6708,8 @@
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-    </row>
-    <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>72</v>
       </c>
@@ -6931,9 +6745,7 @@
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
-      <c r="N64" s="8">
-        <v>4.27666611901605</v>
-      </c>
+      <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
@@ -6943,9 +6755,8 @@
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-    </row>
-    <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>73</v>
       </c>
@@ -6981,9 +6792,7 @@
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
-      <c r="N65" s="8">
-        <v>4.2904594411483901</v>
-      </c>
+      <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
@@ -6993,9 +6802,8 @@
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-    </row>
-    <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>74</v>
       </c>
@@ -7031,9 +6839,7 @@
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
-      <c r="N66" s="8">
-        <v>4.3040650932041702</v>
-      </c>
+      <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
@@ -7043,9 +6849,8 @@
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-    </row>
-    <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>75</v>
       </c>
@@ -7081,9 +6886,7 @@
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
-      <c r="N67" s="8">
-        <v>4.3174881135363101</v>
-      </c>
+      <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
@@ -7093,9 +6896,8 @@
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-    </row>
-    <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>76</v>
       </c>
@@ -7131,9 +6933,7 @@
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
-      <c r="N68" s="8">
-        <v>4.3307333402863302</v>
-      </c>
+      <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
@@ -7143,9 +6943,8 @@
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-    </row>
-    <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>77</v>
       </c>
@@ -7181,9 +6980,7 @@
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
-      <c r="N69" s="8">
-        <v>4.3438054218536797</v>
-      </c>
+      <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
@@ -7193,9 +6990,8 @@
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-    </row>
-    <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>78</v>
       </c>
@@ -7231,9 +7027,7 @@
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
-      <c r="N70" s="8">
-        <v>4.3567088266895899</v>
-      </c>
+      <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
@@ -7243,9 +7037,8 @@
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-    </row>
-    <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>79</v>
       </c>
@@ -7281,9 +7074,7 @@
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="8">
-        <v>4.3694478524670197</v>
-      </c>
+      <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
@@ -7293,9 +7084,8 @@
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-    </row>
-    <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>80</v>
       </c>
@@ -7331,9 +7121,7 @@
       </c>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="8">
-        <v>4.3820266346738803</v>
-      </c>
+      <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
@@ -7343,9 +7131,8 @@
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
       <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-    </row>
-    <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>81</v>
       </c>
@@ -7381,9 +7168,7 @@
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="8">
-        <v>4.3944491546724302</v>
-      </c>
+      <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
@@ -7393,9 +7178,8 @@
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-    </row>
-    <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>82</v>
       </c>
@@ -7431,9 +7215,7 @@
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="8">
-        <v>4.4067192472642498</v>
-      </c>
+      <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
@@ -7443,9 +7225,8 @@
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-    </row>
-    <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>83</v>
       </c>
@@ -7481,9 +7262,7 @@
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
-      <c r="N75" s="8">
-        <v>4.4188406077965903</v>
-      </c>
+      <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
@@ -7493,9 +7272,8 @@
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-    </row>
-    <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>84</v>
       </c>
@@ -7531,9 +7309,7 @@
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
-      <c r="N76" s="8">
-        <v>4.4308167988433098</v>
-      </c>
+      <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
@@ -7543,9 +7319,8 @@
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-    </row>
-    <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>85</v>
       </c>
@@ -7581,9 +7356,7 @@
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
-      <c r="N77" s="8">
-        <v>4.4426512564903096</v>
-      </c>
+      <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
@@ -7593,9 +7366,8 @@
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-    </row>
-    <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>86</v>
       </c>
@@ -7631,9 +7403,7 @@
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="8">
-        <v>4.4543472962535002</v>
-      </c>
+      <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
@@ -7643,9 +7413,8 @@
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-    </row>
-    <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>87</v>
       </c>
@@ -7681,9 +7450,7 @@
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="8">
-        <v>4.4659081186545802</v>
-      </c>
+      <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
@@ -7693,9 +7460,8 @@
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-    </row>
-    <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>88</v>
       </c>
@@ -7731,9 +7497,7 @@
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="8">
-        <v>4.4773368144781998</v>
-      </c>
+      <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
@@ -7743,9 +7507,8 @@
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-    </row>
-    <row r="81" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>89</v>
       </c>
@@ -7781,9 +7544,7 @@
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
-      <c r="N81" s="8">
-        <v>4.4886363697321396</v>
-      </c>
+      <c r="N81" s="8"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
@@ -7793,9 +7554,8 @@
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
       <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-    </row>
-    <row r="82" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>90</v>
       </c>
@@ -7831,9 +7591,7 @@
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="8">
-        <v>4.4998096703302597</v>
-      </c>
+      <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
@@ -7843,9 +7601,8 @@
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-    </row>
-    <row r="83" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>91</v>
       </c>
@@ -7881,9 +7638,7 @@
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
-      <c r="N83" s="8">
-        <v>4.5108595065168497</v>
-      </c>
+      <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
@@ -7893,9 +7648,8 @@
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
-    </row>
-    <row r="84" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>92</v>
       </c>
@@ -7931,9 +7685,7 @@
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
-      <c r="N84" s="8">
-        <v>4.5217885770490396</v>
-      </c>
+      <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
@@ -7943,9 +7695,8 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-    </row>
-    <row r="85" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>93</v>
       </c>
@@ -7981,9 +7732,7 @@
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="8">
-        <v>4.5325994931532501</v>
-      </c>
+      <c r="N85" s="8"/>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
@@ -7993,9 +7742,8 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-    </row>
-    <row r="86" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>94</v>
       </c>
@@ -8031,9 +7779,7 @@
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
-      <c r="N86" s="8">
-        <v>4.5432947822700003</v>
-      </c>
+      <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
@@ -8043,9 +7789,8 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-    </row>
-    <row r="87" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>95</v>
       </c>
@@ -8081,9 +7826,7 @@
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
-      <c r="N87" s="8">
-        <v>4.5538768916005399</v>
-      </c>
+      <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
@@ -8093,9 +7836,8 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-    </row>
-    <row r="88" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>96</v>
       </c>
@@ -8131,9 +7873,7 @@
       </c>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
-      <c r="N88" s="8">
-        <v>4.5643481914678299</v>
-      </c>
+      <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
@@ -8143,9 +7883,8 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-    </row>
-    <row r="89" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>97</v>
       </c>
@@ -8181,9 +7920,7 @@
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
-      <c r="N89" s="8">
-        <v>4.5747109785033802</v>
-      </c>
+      <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
@@ -8193,9 +7930,8 @@
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-    </row>
-    <row r="90" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>98</v>
       </c>
@@ -8231,9 +7967,7 @@
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="8">
-        <v>4.5849674786705696</v>
-      </c>
+      <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
@@ -8243,9 +7977,8 @@
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-    </row>
-    <row r="91" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>99</v>
       </c>
@@ -8281,9 +8014,7 @@
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
-      <c r="N91" s="8">
-        <v>4.5951198501345898</v>
-      </c>
+      <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
@@ -8293,9 +8024,8 @@
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-    </row>
-    <row r="92" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>100</v>
       </c>
@@ -8331,9 +8061,7 @@
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
-      <c r="N92" s="1">
-        <v>4.60517018598809</v>
-      </c>
+      <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
@@ -8343,12 +8071,11 @@
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-    </row>
-    <row r="93" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="93" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9276,36 +9003,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9381,7 +9108,7 @@
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -9416,7 +9143,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -10455,7 +10182,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10467,36 +10194,36 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="7"/>
@@ -16486,36 +16213,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -17903,7 +17630,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17917,36 +17644,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -18057,7 +17784,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3">
         <v>0.46988368000000003</v>
@@ -19212,36 +18939,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -20322,8 +20049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20346,42 +20073,42 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -20434,7 +20161,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -20475,7 +20202,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3">
         <v>-0.12682979999999999</v>
@@ -20516,7 +20243,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3">
         <v>-0.24984899999999999</v>
@@ -20557,7 +20284,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3">
         <v>1.5334159999999999E-2</v>
@@ -20598,7 +20325,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3">
         <v>0.29224640000000002</v>
@@ -20639,7 +20366,7 @@
         <v>365</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3">
         <v>0.59246323999999995</v>
@@ -20677,10 +20404,10 @@
         <v>365.01</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3">
         <v>0.73580380999999995</v>
